--- a/inst/extdata/ex01/User_15022018.xlsx
+++ b/inst/extdata/ex01/User_15022018.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profils\mcanouil\Downloads\DATA\endoc_beta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profils\mcanouil\Downloads\DATA\endoc_beta\ex01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blank" sheetId="3" r:id="rId1"/>
@@ -49,12 +49,6 @@
     <t>BLANK</t>
   </si>
   <si>
-    <t>SN1</t>
-  </si>
-  <si>
-    <t>SN2</t>
-  </si>
-  <si>
     <t>Sample</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
   </si>
   <si>
     <t>Concentration (µg/L)</t>
-  </si>
-  <si>
-    <t>LYSAT</t>
   </si>
   <si>
     <t>Target</t>
@@ -134,6 +125,15 @@
   </si>
   <si>
     <t>0.5 mM Glc + A</t>
+  </si>
+  <si>
+    <t>LYSATE</t>
+  </si>
+  <si>
+    <t>SUPERNATANT1</t>
+  </si>
+  <si>
+    <t>SUPERNATANT2</t>
   </si>
 </sst>
 </file>
@@ -2908,7 +2908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2928,13 +2928,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -2943,19 +2943,19 @@
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2963,10 +2963,10 @@
         <v>43146</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
@@ -3197,7 +3197,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H19"/>
+      <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3223,22 +3223,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
@@ -3247,19 +3247,19 @@
         <v>0</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3280,16 +3280,16 @@
         <v>siNTP</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1">
         <v>0.59624540000000004</v>
@@ -3332,16 +3332,16 @@
         <v>siNTP</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1">
         <v>0.51721709999999999</v>
@@ -3384,16 +3384,16 @@
         <v>siNTP</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1">
         <v>0.51636760000000004</v>
@@ -3436,16 +3436,16 @@
         <v>siNTP</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1">
         <v>0.43326179999999997</v>
@@ -3488,16 +3488,16 @@
         <v>siNTP</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1">
         <v>0.4274869</v>
@@ -3540,16 +3540,16 @@
         <v>siNTP</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1">
         <v>0.38990550000000002</v>
@@ -3592,16 +3592,16 @@
         <v>siNTP</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I8">
         <v>0.20945849999999999</v>
@@ -3646,16 +3646,16 @@
         <v>siNTP</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I9">
         <v>0.26782889999999998</v>
@@ -3700,16 +3700,16 @@
         <v>siNTP</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <v>0.21274299999999999</v>
@@ -3754,16 +3754,16 @@
         <v>siNTP</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I11">
         <v>0.2340991</v>
@@ -3808,16 +3808,16 @@
         <v>siNTP</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I12">
         <v>0.2738042</v>
@@ -3862,16 +3862,16 @@
         <v>siNTP</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I13">
         <v>0.25775589999999998</v>
@@ -3916,16 +3916,16 @@
         <v>siNTP</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1">
         <v>0.28051140000000002</v>
@@ -3970,16 +3970,16 @@
         <v>siNTP</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I15" s="1">
         <v>0.29548600000000003</v>
@@ -4024,16 +4024,16 @@
         <v>siNTP</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1">
         <v>0.32550590000000001</v>
@@ -4078,16 +4078,16 @@
         <v>siNTP</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I17" s="1">
         <v>0.35010140000000001</v>
@@ -4132,16 +4132,16 @@
         <v>siNTP</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I18" s="1">
         <v>0.51121570000000005</v>
@@ -4186,16 +4186,16 @@
         <v>siNTP</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I19" s="1">
         <v>0.4856955</v>
@@ -4233,8 +4233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4260,22 +4260,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
@@ -4284,19 +4284,19 @@
         <v>0</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -4317,16 +4317,16 @@
         <v>siGENE</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1">
         <v>0.64030670000000001</v>
@@ -4369,16 +4369,16 @@
         <v>siGENE</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1">
         <v>0.56672800000000001</v>
@@ -4421,16 +4421,16 @@
         <v>siGENE</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1">
         <v>0.46613320000000003</v>
@@ -4473,16 +4473,16 @@
         <v>siGENE</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1">
         <v>0.51980479999999996</v>
@@ -4525,16 +4525,16 @@
         <v>siGENE</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1">
         <v>0.41306369999999998</v>
@@ -4577,16 +4577,16 @@
         <v>siGENE</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1">
         <v>0.3998718</v>
@@ -4629,16 +4629,16 @@
         <v>siGENE</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I8">
         <v>0.24357799999999999</v>
@@ -4683,16 +4683,16 @@
         <v>siGENE</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I9">
         <v>0.2417782</v>
@@ -4737,16 +4737,16 @@
         <v>siGENE</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <v>0.2629514</v>
@@ -4791,16 +4791,16 @@
         <v>siGENE</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I11">
         <v>0.2722407</v>
@@ -4845,16 +4845,16 @@
         <v>siGENE</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I12">
         <v>0.31608560000000002</v>
@@ -4899,16 +4899,16 @@
         <v>siGENE</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I13">
         <v>0.3002687</v>
@@ -4953,16 +4953,16 @@
         <v>siGENE</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1">
         <v>0.2223369</v>
@@ -5007,16 +5007,16 @@
         <v>siGENE</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I15" s="1">
         <v>0.376944</v>
@@ -5061,16 +5061,16 @@
         <v>siGENE</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1">
         <v>0.35826229999999998</v>
@@ -5115,16 +5115,16 @@
         <v>siGENE</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I17" s="1">
         <v>0.3604426</v>
@@ -5169,16 +5169,16 @@
         <v>siGENE</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I18" s="1">
         <v>0.39424500000000001</v>
@@ -5223,16 +5223,16 @@
         <v>siGENE</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I19" s="1">
         <v>0.41706179999999998</v>
